--- a/systematic lit review october 2018 (1).xlsx
+++ b/systematic lit review october 2018 (1).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catherineschluth/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catherineschluth/bansallab/humanhelminths/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E1BC2572-A484-8642-9BE9-2488447B857D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4E5CA796-DDB6-F347-9D16-67EDBD413918}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-40" yWindow="460" windowWidth="28840" windowHeight="16060" xr2:uid="{91FD2FA6-0E6B-461F-B49B-24525378B928}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" xr2:uid="{91FD2FA6-0E6B-461F-B49B-24525378B928}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="153">
   <si>
     <t>Latin name</t>
   </si>
@@ -1114,6 +1114,174 @@
   </si>
   <si>
     <t>Co-endemicity studies ok?</t>
+  </si>
+  <si>
+    <t>Northern Peru</t>
+  </si>
+  <si>
+    <t>Necroscopi examinations on pigs, ELISA on humans, GPS, logistic regression models, EITB, ArcMap</t>
+  </si>
+  <si>
+    <t>https://journals.plos.org/plosntds/article?id=10.1371/journal.pntd.0005536&amp;rev=2</t>
+  </si>
+  <si>
+    <r>
+      <t>Pray, Ian W., Viterbo Ayvar, Ricardo Gamboa, Claudio Muro, Luz M. Moyano, Victor Benavides, Robert H. Flecker, Hector H. Garcia, and Seth E. O’Neal. "Spatial relationship between Taenia solium tapeworm carriers and necropsy cyst burden in pigs." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PLoS neglected tropical diseases</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> 11, no. 4 (2017): e0005536.</t>
+    </r>
+  </si>
+  <si>
+    <t>ELISA, EITB, ArcMAP 10 GIS</t>
+  </si>
+  <si>
+    <t>402 humans, 548 pigs</t>
+  </si>
+  <si>
+    <t>https://journals.plos.org/plosntds/article?id=10.1371/journal.pntd.0001953</t>
+  </si>
+  <si>
+    <r>
+      <t>O'Neal, Seth E., Luz M. Moyano, Viterbo Ayvar, Guillermo Gonzalvez, Andre Diaz, Silvia Rodriguez, Patricia P. Wilkins et al. "Geographic correlation between tapeworm carriers and heavily infected cysticercotic pigs." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PLoS neglected tropical diseases</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> 6, no. 12 (2012): e1953.</t>
+    </r>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>http://www.vetparasitology.ugent.be/resources/PhD-Coral.pdf#page=69</t>
+  </si>
+  <si>
+    <t>Negative binomial regression models, Kriging, space-time clustering, SaTScan</t>
+  </si>
+  <si>
+    <t>No sample size given, just number of cases of NCC and epilepsy from hospital data</t>
+  </si>
+  <si>
+    <r>
+      <t>Ron-Garrido, Lenin, Marco Coral-Almeida, Sarah Gabriël, Washington Benitez, Claude Saegerman, Pierre Dorny, and Dirk Berkvens. "3 Human neurocysticercosis and epilepsy in Ecuador: Distribution in space and time of hospitalized reported cases." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Epidemiological transmission patterns of Taenia solium cysticercosis in endemic areas: The case of Ecuador</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> (2015): 64.</t>
+    </r>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>https://journals.plos.org/plosntds/article?id=10.1371/journal.pntd.0001926</t>
+  </si>
+  <si>
+    <t>GPS, ELISA, IBM SPSS, ArcGIS, STATA</t>
+  </si>
+  <si>
+    <r>
+      <t>Swaminathan, Subramanian, Vanamail Perumal, Srividya Adinarayanan, Krishnamoorthy Kaliannagounder, Ravi Rengachari, and Jambulingam Purushothaman. "Epidemiological assessment of eight rounds of mass drug administration for lymphatic filariasis in India: implications for monitoring and evaluation." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PLoS neglected tropical diseases</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>6, no. 11 (2012): e1926.</t>
+    </r>
+  </si>
+  <si>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t>https://journals.plos.org/plosntds/article?id=10.1371/journal.pntd.0002714</t>
+  </si>
+  <si>
+    <t>GPS, ICT, SPSS, remote sensing, NDVI, MODIS, ArcMap, STATA, MaxEnt</t>
+  </si>
+  <si>
+    <r>
+      <t>Mwase, Enala T., Anna-Sofie Stensgaard, Mutale Nsakashalo-Senkwe, Likezo Mubila, James Mwansa, Peter Songolo, Sheila T. Shawa, and Paul E. Simonsen. "Mapping the geographical distribution of lymphatic filariasis in Zambia." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PLoS neglected tropical diseases</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> 8, no. 2 (2014): e2714.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1593,10 +1761,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6841491-4DF6-412B-93BA-008054BB3AC1}">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="135" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -1674,9 +1842,6 @@
       <c r="H2" s="4">
         <v>1450</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="2" t="s">
@@ -1700,9 +1865,6 @@
       <c r="G3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="7" t="s">
@@ -1729,9 +1891,6 @@
       <c r="H4" s="4">
         <v>166</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="K4" s="4" t="s">
         <v>29</v>
       </c>
@@ -1761,9 +1920,6 @@
       <c r="H5" s="4">
         <v>351</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="2" t="s">
@@ -1790,9 +1946,6 @@
       <c r="H6" s="4">
         <v>562</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="2" t="s">
@@ -1819,9 +1972,6 @@
       <c r="H7" s="4">
         <v>729</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
@@ -1848,9 +1998,6 @@
       <c r="H8" s="4">
         <v>370</v>
       </c>
-      <c r="I8" s="4" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
@@ -1877,9 +2024,6 @@
       <c r="H9" s="4">
         <v>720</v>
       </c>
-      <c r="I9" s="4" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="2" t="s">
@@ -1906,9 +2050,6 @@
       <c r="H10" s="4">
         <v>1829</v>
       </c>
-      <c r="I10" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="K10" s="4" t="s">
         <v>71</v>
       </c>
@@ -1938,9 +2079,6 @@
       <c r="H11" s="4">
         <v>4599</v>
       </c>
-      <c r="I11" s="4" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="2" t="s">
@@ -1967,9 +2105,6 @@
       <c r="H12" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I12" s="4" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="2" t="s">
@@ -1996,9 +2131,6 @@
       <c r="H13" s="4">
         <v>130</v>
       </c>
-      <c r="I13" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="K13" s="4" t="s">
         <v>119</v>
       </c>
@@ -2028,9 +2160,6 @@
       <c r="H14" s="4">
         <v>79</v>
       </c>
-      <c r="I14" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="K14" s="4" t="s">
         <v>125</v>
       </c>
@@ -2060,9 +2189,6 @@
       <c r="H15" s="4">
         <v>2219</v>
       </c>
-      <c r="I15" s="4" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="2" t="s">
@@ -2086,9 +2212,6 @@
       <c r="G16" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="I16" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="K16" s="4" t="s">
         <v>107</v>
       </c>
@@ -2118,9 +2241,6 @@
       <c r="H17" s="4">
         <v>8670</v>
       </c>
-      <c r="I17" s="4" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="2" t="s">
@@ -2147,9 +2267,6 @@
       <c r="H18" s="4">
         <v>9288</v>
       </c>
-      <c r="I18" s="4" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="19" spans="1:11" ht="14" customHeight="1">
       <c r="A19" s="2" t="s">
@@ -2170,9 +2287,6 @@
       <c r="F19" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="I19" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="K19" s="4" t="s">
         <v>100</v>
       </c>
@@ -2202,9 +2316,6 @@
       <c r="H20" s="4">
         <v>807</v>
       </c>
-      <c r="I20" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="K20" s="4" t="s">
         <v>94</v>
       </c>
@@ -2234,9 +2345,6 @@
       <c r="H21" s="4">
         <v>664</v>
       </c>
-      <c r="I21" s="4" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="2" t="s">
@@ -2263,9 +2371,6 @@
       <c r="H22" s="4">
         <v>2639</v>
       </c>
-      <c r="I22" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="K22" s="4" t="s">
         <v>84</v>
       </c>
@@ -2327,9 +2432,6 @@
       <c r="H24" s="4">
         <v>91</v>
       </c>
-      <c r="I24" s="4" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="2" t="s">
@@ -2356,11 +2458,138 @@
       <c r="H25" s="4">
         <v>17533</v>
       </c>
-      <c r="I25" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="K25" s="4" t="s">
         <v>131</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C26" s="11">
+        <v>2017</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="H26" s="4">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C27" s="11">
+        <v>2012</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C28" s="11">
+        <v>2015</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C29" s="11">
+        <v>2012</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="H29" s="4">
+        <v>34294</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C30" s="11">
+        <v>2014</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="H30" s="4">
+        <v>9964</v>
       </c>
     </row>
   </sheetData>
